--- a/unit-tests/dl.xlsx
+++ b/unit-tests/dl.xlsx
@@ -14,14 +14,20 @@
   <sheets>
     <sheet name="dl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DL+4</t>
+  </si>
+  <si>
+    <t>DL+8</t>
   </si>
 </sst>
 </file>
@@ -828,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,16 +964,36 @@
       <c r="A4">
         <v>112</v>
       </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>112</v>
       </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <f>F4+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>112</v>
       </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F29" si="0">F5+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -976,6 +1002,13 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -984,6 +1017,16 @@
       <c r="B8">
         <v>48512</v>
       </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -992,6 +1035,13 @@
       <c r="B9">
         <v>189.5</v>
       </c>
+      <c r="D9">
+        <v>189</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1000,6 +1050,13 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1008,16 +1065,40 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>103</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>168</v>
       </c>
+      <c r="D12">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189</v>
       </c>
+      <c r="D13">
+        <v>189</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1026,6 +1107,13 @@
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1034,6 +1122,13 @@
       <c r="B15">
         <v>4</v>
       </c>
+      <c r="D15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1042,76 +1137,171 @@
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>39</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>39</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>39</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>189</v>
+      </c>
+      <c r="D26">
+        <v>189</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
